--- a/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5373</v>
+        <v>4806</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.004626440359802422</v>
+        <v>0.004626440359802423</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01685152171602182</v>
+        <v>0.01507324232687561</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>2479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5665</v>
+        <v>5424</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007843429695584972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002995029867555768</v>
+        <v>0.003030398923211908</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01792275923398759</v>
+        <v>0.01716177274478441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>3954</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1675</v>
+        <v>1774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8192</v>
+        <v>7868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006227880320221276</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002638289806900536</v>
+        <v>0.002793714606740116</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0129020489911806</v>
+        <v>0.01239251785254855</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>26947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18254</v>
+        <v>18698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37340</v>
+        <v>37854</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.084513785053696</v>
+        <v>0.08451378505369601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05725109210508233</v>
+        <v>0.05864399231891809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1171113543510807</v>
+        <v>0.1187226365741684</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -833,19 +833,19 @@
         <v>42753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34079</v>
+        <v>34060</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51598</v>
+        <v>51824</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1352672486801094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1078248471115341</v>
+        <v>0.1077634172745874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1632534867238918</v>
+        <v>0.1639685365584978</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>115</v>
@@ -854,19 +854,19 @@
         <v>69699</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58347</v>
+        <v>57536</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82537</v>
+        <v>83579</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1097792168898981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09189861929383505</v>
+        <v>0.09062072217341804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1299993699868524</v>
+        <v>0.131640610873053</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>28179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19640</v>
+        <v>19518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39775</v>
+        <v>39483</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08837818482160546</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06159693601639232</v>
+        <v>0.06121596086336844</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1247470315796765</v>
+        <v>0.1238309001098906</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>77</v>
@@ -904,19 +904,19 @@
         <v>47594</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37881</v>
+        <v>37374</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60378</v>
+        <v>60304</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1505862691467934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1198530151013705</v>
+        <v>0.1182499324802584</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1910330041741035</v>
+        <v>0.1907979474990767</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>108</v>
@@ -925,19 +925,19 @@
         <v>75773</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61141</v>
+        <v>61301</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92282</v>
+        <v>92173</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.119345807558604</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09629934649350153</v>
+        <v>0.09655061188856287</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1453475683156361</v>
+        <v>0.145175707698713</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>262244</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>249058</v>
+        <v>248775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>273803</v>
+        <v>274602</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8224815897648959</v>
+        <v>0.8224815897648962</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7811265602074322</v>
+        <v>0.7802373914169054</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8587353391383736</v>
+        <v>0.8612401241195906</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>371</v>
@@ -975,19 +975,19 @@
         <v>223235</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>209759</v>
+        <v>209027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>236301</v>
+        <v>235905</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7063030524775123</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6636656129793542</v>
+        <v>0.6613513483425923</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.747643000959392</v>
+        <v>0.7463905026690558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>639</v>
@@ -996,19 +996,19 @@
         <v>485479</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>466805</v>
+        <v>465269</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>503881</v>
+        <v>505813</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7646470952312766</v>
+        <v>0.7646470952312765</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7352353702141555</v>
+        <v>0.7328157291583772</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7936306667298538</v>
+        <v>0.7966743970305998</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>19815</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10772</v>
+        <v>11142</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>34582</v>
+        <v>33528</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03734077297054452</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02030028295670041</v>
+        <v>0.02099722503800793</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06516996763386028</v>
+        <v>0.06318253382861096</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -1121,19 +1121,19 @@
         <v>22957</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15766</v>
+        <v>15748</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31472</v>
+        <v>32071</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04200778236531401</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02884895870162617</v>
+        <v>0.02881606215646913</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05758884728356867</v>
+        <v>0.05868418830109575</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>46</v>
@@ -1142,19 +1142,19 @@
         <v>42772</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30489</v>
+        <v>31369</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58508</v>
+        <v>59578</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03970860913464733</v>
+        <v>0.03970860913464732</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02830567110126012</v>
+        <v>0.02912257077641222</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05431780209877648</v>
+        <v>0.05531152202537656</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>20627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12303</v>
+        <v>11711</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33134</v>
+        <v>32542</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03887112174372917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02318402432375858</v>
+        <v>0.02206909061529032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06244105655864656</v>
+        <v>0.06132420960553424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1192,19 +1192,19 @@
         <v>35877</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27706</v>
+        <v>27003</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45512</v>
+        <v>46686</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06565030210862652</v>
+        <v>0.06565030210862653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05069687493629474</v>
+        <v>0.04941052266899951</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08328015814763995</v>
+        <v>0.08542738876921321</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1213,19 +1213,19 @@
         <v>56504</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45213</v>
+        <v>43588</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72037</v>
+        <v>72700</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05245770500282876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04197482048830073</v>
+        <v>0.04046642709720719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06687762759811368</v>
+        <v>0.06749355158045055</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>114686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91355</v>
+        <v>94786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>139525</v>
+        <v>140364</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2161251499399978</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.172158397393579</v>
+        <v>0.1786228414810469</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2629332133922384</v>
+        <v>0.2645138985247237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>190</v>
@@ -1263,19 +1263,19 @@
         <v>136162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118422</v>
+        <v>119646</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154520</v>
+        <v>156255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2491546557576283</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2166948137765033</v>
+        <v>0.2189332036782925</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2827475763479756</v>
+        <v>0.285922419262303</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>281</v>
@@ -1284,19 +1284,19 @@
         <v>250848</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>223138</v>
+        <v>223033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>282282</v>
+        <v>278419</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2328828745859093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2071579304672877</v>
+        <v>0.2070602971307153</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.262065634092399</v>
+        <v>0.2584799070877115</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>375519</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>348962</v>
+        <v>348457</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>400280</v>
+        <v>399877</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7076629553457285</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6576154815165709</v>
+        <v>0.6566645871464286</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7543241358318451</v>
+        <v>0.7535657499135223</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>441</v>
@@ -1334,19 +1334,19 @@
         <v>351498</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>330253</v>
+        <v>330599</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>372123</v>
+        <v>371009</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6431872597684312</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6043125087969478</v>
+        <v>0.6049452751325944</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6809276229663453</v>
+        <v>0.6788897716538997</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>702</v>
@@ -1355,19 +1355,19 @@
         <v>727017</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>694607</v>
+        <v>696829</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>759502</v>
+        <v>761232</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6749508112766147</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6448614797463602</v>
+        <v>0.646924643255083</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7051094553222429</v>
+        <v>0.706715297701822</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>19275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12532</v>
+        <v>12536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27636</v>
+        <v>29094</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06099940036319186</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03965922988519735</v>
+        <v>0.03967202010351902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08745758751503656</v>
+        <v>0.0920729871286482</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -1480,19 +1480,19 @@
         <v>39093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30123</v>
+        <v>29967</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49558</v>
+        <v>49041</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1100363088768289</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0847877225079485</v>
+        <v>0.08435010542821199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1394936482383781</v>
+        <v>0.1380363180801261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>85</v>
@@ -1501,19 +1501,19 @@
         <v>58368</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47110</v>
+        <v>47073</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72489</v>
+        <v>70668</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08695259285352484</v>
+        <v>0.08695259285352483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0701807966968762</v>
+        <v>0.07012526186992897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.107989061045408</v>
+        <v>0.1052762788513637</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>24640</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17094</v>
+        <v>15898</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>36285</v>
+        <v>35165</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07797595662280583</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05409495180775595</v>
+        <v>0.05031263809107599</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1148276225109265</v>
+        <v>0.1112832990781907</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>65</v>
@@ -1551,19 +1551,19 @@
         <v>38288</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>29766</v>
+        <v>29057</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>48065</v>
+        <v>48067</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1077695569234779</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08378377668145191</v>
+        <v>0.0817864465893058</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1352910975802995</v>
+        <v>0.1352947134134899</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>94</v>
@@ -1572,19 +1572,19 @@
         <v>62928</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>51602</v>
+        <v>50190</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>76846</v>
+        <v>76471</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09374446787323162</v>
+        <v>0.09374446787323161</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07687199106813426</v>
+        <v>0.07476935806747866</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1144786636320868</v>
+        <v>0.113920526698533</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>40217</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30459</v>
+        <v>30665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52518</v>
+        <v>53119</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1272728954101896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09639270131155329</v>
+        <v>0.0970447437973465</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1661988658837951</v>
+        <v>0.1681023377645776</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -1622,19 +1622,19 @@
         <v>66708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55712</v>
+        <v>56850</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78805</v>
+        <v>79867</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1877638213431167</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1568138883369626</v>
+        <v>0.160016490179737</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.221815990682315</v>
+        <v>0.2248031090847907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>166</v>
@@ -1643,19 +1643,19 @@
         <v>106925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92504</v>
+        <v>91310</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123960</v>
+        <v>125107</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1592882220741684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1378046771531168</v>
+        <v>0.1360263577694029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1846656411612769</v>
+        <v>0.1863744754530489</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>231860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>216200</v>
+        <v>215448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>244648</v>
+        <v>245886</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7337517476038127</v>
+        <v>0.7337517476038126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6841927535749857</v>
+        <v>0.6818140019798901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7742181597941314</v>
+        <v>0.7781363488159079</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>293</v>
@@ -1693,19 +1693,19 @@
         <v>211186</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195465</v>
+        <v>196069</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>226680</v>
+        <v>226748</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5944303128565764</v>
+        <v>0.5944303128565763</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5501810737344109</v>
+        <v>0.5518820627010003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6380437623758954</v>
+        <v>0.6382351502274529</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>549</v>
@@ -1714,19 +1714,19 @@
         <v>443046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>420705</v>
+        <v>421654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>462521</v>
+        <v>464138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6600147171990752</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6267325923691698</v>
+        <v>0.628147103527449</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6890271757503845</v>
+        <v>0.6914362793666634</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>25273</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16082</v>
+        <v>15255</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39929</v>
+        <v>38406</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06772860960091649</v>
+        <v>0.06772860960091648</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04309909662660288</v>
+        <v>0.04088261868594956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1070068616428045</v>
+        <v>0.1029241977288356</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -1839,19 +1839,19 @@
         <v>47863</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37830</v>
+        <v>37512</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62429</v>
+        <v>61982</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1134294852355813</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08965209344316109</v>
+        <v>0.08890023350584264</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1479487123615</v>
+        <v>0.1468913635978958</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -1860,19 +1860,19 @@
         <v>73136</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57924</v>
+        <v>57088</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93085</v>
+        <v>91496</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09198196756240948</v>
+        <v>0.09198196756240946</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07284995752443052</v>
+        <v>0.0717985424886602</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1170719058213576</v>
+        <v>0.1150739206352288</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>24373</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14638</v>
+        <v>15544</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36957</v>
+        <v>38425</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06531860174003157</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03922858539392027</v>
+        <v>0.04165618828455225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09904191683821467</v>
+        <v>0.1029765282711927</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -1910,19 +1910,19 @@
         <v>47218</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36918</v>
+        <v>36743</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63438</v>
+        <v>61922</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1119018906427111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08749200920077072</v>
+        <v>0.08707655554378707</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1503406684976793</v>
+        <v>0.1467469759203363</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -1931,19 +1931,19 @@
         <v>71592</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>57273</v>
+        <v>56640</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>89472</v>
+        <v>89612</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09004025455500216</v>
+        <v>0.09004025455500214</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07203177304893384</v>
+        <v>0.07123575013295565</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.112528601093302</v>
+        <v>0.1127037249061774</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>50760</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38628</v>
+        <v>36752</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70730</v>
+        <v>69375</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1360342074019791</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1035193603501826</v>
+        <v>0.09849269979706891</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1895496801897438</v>
+        <v>0.1859186421822103</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>153</v>
@@ -1981,19 +1981,19 @@
         <v>89589</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>76068</v>
+        <v>76659</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>105784</v>
+        <v>105129</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.212316975971248</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1802735601776625</v>
+        <v>0.1816727196529225</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2506962057212946</v>
+        <v>0.2491448542703752</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>201</v>
@@ -2002,19 +2002,19 @@
         <v>140350</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>120512</v>
+        <v>119333</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>163615</v>
+        <v>163968</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1765173112093133</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1515669220864634</v>
+        <v>0.150084220747273</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2057772128808752</v>
+        <v>0.2062209056791363</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>272739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>249891</v>
+        <v>251984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>293447</v>
+        <v>292094</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.730918581257073</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6696895702946752</v>
+        <v>0.6752977276522305</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7864161003039469</v>
+        <v>0.7827908438457849</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>297</v>
@@ -2052,19 +2052,19 @@
         <v>237290</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>216825</v>
+        <v>216893</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>254174</v>
+        <v>254268</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5623516481504598</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.513850794492469</v>
+        <v>0.5140122128298865</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6023629369757408</v>
+        <v>0.6025864703364204</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>496</v>
@@ -2073,19 +2073,19 @@
         <v>510030</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>482880</v>
+        <v>480246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>539578</v>
+        <v>538744</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6414604666732751</v>
+        <v>0.6414604666732749</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.607314949260421</v>
+        <v>0.604001177663627</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6786231845273171</v>
+        <v>0.6775742462696052</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>4183</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1912</v>
+        <v>1836</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8659</v>
+        <v>8937</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02033958533487613</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009296264676086246</v>
+        <v>0.008924814438066577</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04210213557330709</v>
+        <v>0.04345278653405733</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -2198,19 +2198,19 @@
         <v>11449</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7348</v>
+        <v>7844</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16013</v>
+        <v>16495</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05047559803536441</v>
+        <v>0.05047559803536442</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03239442047509809</v>
+        <v>0.03458057136950667</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0705960570753372</v>
+        <v>0.07272067945579246</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -2219,19 +2219,19 @@
         <v>15632</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10647</v>
+        <v>11306</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21106</v>
+        <v>21603</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03614476344002187</v>
+        <v>0.03614476344002188</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02461700401867561</v>
+        <v>0.02614213446187419</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04880024594595183</v>
+        <v>0.04994948021948356</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>10362</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6190</v>
+        <v>6174</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16786</v>
+        <v>16064</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05038135289739053</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03009688862889754</v>
+        <v>0.03002018273042151</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08161649918842492</v>
+        <v>0.07810719925403488</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2269,19 +2269,19 @@
         <v>13582</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9688</v>
+        <v>9569</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18550</v>
+        <v>18999</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05987944815195832</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04271387011837507</v>
+        <v>0.04218911380014879</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08178281600063055</v>
+        <v>0.0837618964395485</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -2290,19 +2290,19 @@
         <v>23944</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18388</v>
+        <v>17740</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31313</v>
+        <v>31419</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05536273808096032</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.042516944572738</v>
+        <v>0.04101788447224083</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07240244235745903</v>
+        <v>0.07264799007117183</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>143354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>130463</v>
+        <v>130485</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>155177</v>
+        <v>154998</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6970275014439782</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6343450880225294</v>
+        <v>0.634453160265381</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7545114852384349</v>
+        <v>0.7536412797326444</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>379</v>
@@ -2340,19 +2340,19 @@
         <v>168773</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>156917</v>
+        <v>157593</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>178099</v>
+        <v>177815</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.744074305409296</v>
+        <v>0.7440743054092958</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6918054756726447</v>
+        <v>0.6947838549922646</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.785189634380157</v>
+        <v>0.7839371495572182</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>583</v>
@@ -2361,19 +2361,19 @@
         <v>312127</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>295651</v>
+        <v>296318</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>327225</v>
+        <v>326803</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7217017383226239</v>
+        <v>0.7217017383226237</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6836043844035714</v>
+        <v>0.6851461960179936</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.756610745818449</v>
+        <v>0.7556339662328994</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>47766</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>37304</v>
+        <v>36560</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>60583</v>
+        <v>60670</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2322515603237552</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1813837409564981</v>
+        <v>0.1777628538693911</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2945688916485998</v>
+        <v>0.2949939570034325</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>52</v>
@@ -2411,19 +2411,19 @@
         <v>33019</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>25314</v>
+        <v>25147</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>44499</v>
+        <v>44873</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1455706484033814</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1116008234655715</v>
+        <v>0.1108680708741644</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1961825801647034</v>
+        <v>0.1978338020534001</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>103</v>
@@ -2432,19 +2432,19 @@
         <v>80785</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>66715</v>
+        <v>67250</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>97302</v>
+        <v>97356</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1867907601563939</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1542589559520254</v>
+        <v>0.1554966981357008</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.224981210113211</v>
+        <v>0.2251068091270505</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>9324</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5606</v>
+        <v>5390</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14517</v>
+        <v>15868</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03444317117144576</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02070899297455089</v>
+        <v>0.01991060888908569</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05362654113976194</v>
+        <v>0.05861518653551843</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2557,19 +2557,19 @@
         <v>15715</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10789</v>
+        <v>10865</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>22337</v>
+        <v>22526</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.05958134092181314</v>
+        <v>0.05958134092181312</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04090498538151069</v>
+        <v>0.04119534956198129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08469036546974304</v>
+        <v>0.08540677781769329</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -2578,19 +2578,19 @@
         <v>25039</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18337</v>
+        <v>17869</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33181</v>
+        <v>33365</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04684865233394966</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03430883045508468</v>
+        <v>0.03343452729743571</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06208357040478707</v>
+        <v>0.06242821617928265</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>20760</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13911</v>
+        <v>13908</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29237</v>
+        <v>29715</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07668963248180068</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05138793564621244</v>
+        <v>0.05137795061515332</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1080037184960407</v>
+        <v>0.1097680677512746</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>99</v>
@@ -2628,19 +2628,19 @@
         <v>47176</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>39143</v>
+        <v>39359</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57612</v>
+        <v>56450</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1788680759839348</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.148407969391514</v>
+        <v>0.1492289224698596</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2184345870662493</v>
+        <v>0.214027634414875</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>131</v>
@@ -2649,19 +2649,19 @@
         <v>67937</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>57813</v>
+        <v>56635</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>80415</v>
+        <v>80871</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.127113858615494</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1081715760693493</v>
+        <v>0.1059670553904538</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1504606343772042</v>
+        <v>0.1513140122624889</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>38468</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>29561</v>
+        <v>30649</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>49233</v>
+        <v>49963</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1421007039289802</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1092005558044424</v>
+        <v>0.1132194175074807</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1818695035942073</v>
+        <v>0.1845639503949982</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>99</v>
@@ -2699,19 +2699,19 @@
         <v>47764</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>39399</v>
+        <v>39470</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>57622</v>
+        <v>57096</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1810952461441853</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1493804560313012</v>
+        <v>0.1496496432540406</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2184714373200942</v>
+        <v>0.2164786195542027</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>163</v>
@@ -2720,19 +2720,19 @@
         <v>86232</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>74245</v>
+        <v>72843</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>99898</v>
+        <v>99077</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1613441915692895</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1389174258021695</v>
+        <v>0.1362931449223473</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1869144986971107</v>
+        <v>0.1853791017147735</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>202155</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>189236</v>
+        <v>188950</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>213945</v>
+        <v>213025</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7467664924177733</v>
+        <v>0.7467664924177734</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6990441168098875</v>
+        <v>0.6979870634549221</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7903201940052254</v>
+        <v>0.7869221770467606</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>231</v>
@@ -2770,19 +2770,19 @@
         <v>153095</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>139616</v>
+        <v>140382</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>164577</v>
+        <v>164892</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5804553369500669</v>
+        <v>0.5804553369500665</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5293508380101484</v>
+        <v>0.532253501265626</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6239891916249807</v>
+        <v>0.6251811464227052</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>490</v>
@@ -2791,19 +2791,19 @@
         <v>355250</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>337024</v>
+        <v>337171</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>372076</v>
+        <v>372863</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6646932974812667</v>
+        <v>0.6646932974812668</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6305915319329424</v>
+        <v>0.6308655895811756</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6961748839187415</v>
+        <v>0.6976477049286829</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>34981</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>23752</v>
+        <v>23778</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>51646</v>
+        <v>49613</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0486788566169003</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03305290740651323</v>
+        <v>0.03308900450702325</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07187035255728487</v>
+        <v>0.0690410347225017</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>104</v>
@@ -2916,19 +2916,19 @@
         <v>82760</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>68277</v>
+        <v>68322</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>100651</v>
+        <v>101512</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1071940095080342</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08843480381764732</v>
+        <v>0.08849335380907609</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.130367490048391</v>
+        <v>0.1314821771861936</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>136</v>
@@ -2937,19 +2937,19 @@
         <v>117741</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>96489</v>
+        <v>98471</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>141614</v>
+        <v>140237</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07898553904786755</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06472901166000855</v>
+        <v>0.06605856618854318</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09500098045408949</v>
+        <v>0.0940767256244384</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>52745</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>38905</v>
+        <v>39025</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>69676</v>
+        <v>73371</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.07339930155318862</v>
+        <v>0.07339930155318861</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05413981939120942</v>
+        <v>0.05430615937978935</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09695969217061327</v>
+        <v>0.1021019121605896</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>114</v>
@@ -2987,19 +2987,19 @@
         <v>90834</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>74043</v>
+        <v>74314</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>107784</v>
+        <v>109408</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1176523578633178</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09590307906775136</v>
+        <v>0.09625489875916647</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1396063200625345</v>
+        <v>0.1417093792610724</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>159</v>
@@ -3008,19 +3008,19 @@
         <v>143579</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>121176</v>
+        <v>121244</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>168905</v>
+        <v>168213</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.09631923353535399</v>
+        <v>0.09631923353535402</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08128992034853824</v>
+        <v>0.0813357375300737</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1133090478113614</v>
+        <v>0.1128445467268815</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>132077</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>110141</v>
+        <v>109386</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>156411</v>
+        <v>155064</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1837969540977198</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1532707677767647</v>
+        <v>0.1522192774254116</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.217658535916561</v>
+        <v>0.2157843745590986</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>208</v>
@@ -3058,19 +3058,19 @@
         <v>161280</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>142139</v>
+        <v>139077</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>184339</v>
+        <v>181896</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2088962460343633</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1841038012894781</v>
+        <v>0.1801377400844829</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2387640476493808</v>
+        <v>0.2355996985596103</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>323</v>
@@ -3079,19 +3079,19 @@
         <v>293357</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>263391</v>
+        <v>264164</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>326491</v>
+        <v>323448</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1967966000420996</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1766937321192414</v>
+        <v>0.1772127771438148</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2190239285294122</v>
+        <v>0.2169829361817161</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>498802</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>470925</v>
+        <v>470893</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>525057</v>
+        <v>529112</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6941248877321913</v>
+        <v>0.6941248877321915</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6553323084827374</v>
+        <v>0.6552873375682992</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.73066094832116</v>
+        <v>0.7363039123999715</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>534</v>
@@ -3129,19 +3129,19 @@
         <v>437183</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>408993</v>
+        <v>408837</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>464291</v>
+        <v>463964</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5662573865942846</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5297443669315648</v>
+        <v>0.5295419938597984</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6013693772888091</v>
+        <v>0.6009446625961763</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>940</v>
@@ -3150,19 +3150,19 @@
         <v>935985</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>896020</v>
+        <v>897785</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>974530</v>
+        <v>973053</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6278986273746788</v>
+        <v>0.6278986273746789</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6010888126166584</v>
+        <v>0.6022727819649563</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6537566613820953</v>
+        <v>0.6527655636178014</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>120954</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>102542</v>
+        <v>104863</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>142030</v>
+        <v>141704</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1515574417179075</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1284870686697039</v>
+        <v>0.1313955611557306</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.177966891322248</v>
+        <v>0.1775576198820942</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>287</v>
@@ -3275,19 +3275,19 @@
         <v>189798</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>171241</v>
+        <v>171722</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>211641</v>
+        <v>210051</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2285047666922834</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2061630911058059</v>
+        <v>0.2067425220425611</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2548025743302822</v>
+        <v>0.2528882786199488</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>435</v>
@@ -3296,19 +3296,19 @@
         <v>310752</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>284103</v>
+        <v>283604</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>338196</v>
+        <v>341522</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1907997084799927</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1744375999721909</v>
+        <v>0.1741313934654632</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2076503019143026</v>
+        <v>0.2096926352113967</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>33613</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>24210</v>
+        <v>24926</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>44744</v>
+        <v>45175</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.04211820450771582</v>
+        <v>0.04211820450771581</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03033609068154781</v>
+        <v>0.03123242372316476</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05606553028506471</v>
+        <v>0.05660525863038096</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>94</v>
@@ -3346,19 +3346,19 @@
         <v>66150</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>54195</v>
+        <v>52427</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>79724</v>
+        <v>79288</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.07964051022052028</v>
+        <v>0.07964051022052029</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06524788555875961</v>
+        <v>0.06311847431720594</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09598310726810552</v>
+        <v>0.09545783224722078</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>135</v>
@@ -3367,19 +3367,19 @@
         <v>99763</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>83462</v>
+        <v>83803</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>116956</v>
+        <v>117936</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.06125415667760252</v>
+        <v>0.06125415667760253</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05124533444147768</v>
+        <v>0.05145480297174478</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07180995508748216</v>
+        <v>0.07241211331769748</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>142988</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>121569</v>
+        <v>121793</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>164528</v>
+        <v>166028</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1791670617010268</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.152328349897639</v>
+        <v>0.1526096621649497</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2061563354189287</v>
+        <v>0.2080367651146721</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>238</v>
@@ -3417,19 +3417,19 @@
         <v>176568</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>156296</v>
+        <v>155420</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>198438</v>
+        <v>198651</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.2125769561144749</v>
+        <v>0.212576956114475</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1881701363500901</v>
+        <v>0.1871159075030016</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2389067325968037</v>
+        <v>0.2391625559659135</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>392</v>
@@ -3438,19 +3438,19 @@
         <v>319557</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>289294</v>
+        <v>291802</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>350693</v>
+        <v>349426</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1962057305501679</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1776249225061132</v>
+        <v>0.1791648307228841</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2153234223227609</v>
+        <v>0.2145452093855688</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>500517</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>473582</v>
+        <v>474137</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>529538</v>
+        <v>528977</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6271572920733499</v>
+        <v>0.6271572920733498</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5934076574194651</v>
+        <v>0.5941026483371089</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6635213573270309</v>
+        <v>0.6628189369105688</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>442</v>
@@ -3488,19 +3488,19 @@
         <v>398092</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>372263</v>
+        <v>371595</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>423992</v>
+        <v>424958</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4792777669727213</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4481807440133183</v>
+        <v>0.4473765064164953</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5104593868702771</v>
+        <v>0.511621768974335</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>861</v>
@@ -3509,19 +3509,19 @@
         <v>898609</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>860018</v>
+        <v>861333</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>935207</v>
+        <v>939694</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5517404042922368</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5280454738342321</v>
+        <v>0.5288529968340825</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5742112423411259</v>
+        <v>0.5769663822378083</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>235280</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>206076</v>
+        <v>206708</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>264933</v>
+        <v>269267</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06661975665985197</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05835063849367236</v>
+        <v>0.0585295846100426</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07501614326059951</v>
+        <v>0.07624329992512313</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>622</v>
@@ -3634,19 +3634,19 @@
         <v>412114</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>381545</v>
+        <v>379880</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>445275</v>
+        <v>445774</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1103965151694881</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1022078459343996</v>
+        <v>0.1017618647393944</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1192796869766713</v>
+        <v>0.1194133805324536</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>886</v>
@@ -3655,19 +3655,19 @@
         <v>647393</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>602924</v>
+        <v>607366</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>688936</v>
+        <v>698439</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.08911479661043448</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.08299352508266973</v>
+        <v>0.08360502204196603</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09483320185284366</v>
+        <v>0.09614141112057285</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>214067</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>185794</v>
+        <v>187187</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>244532</v>
+        <v>244852</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.06061349391225822</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.05260780373627665</v>
+        <v>0.05300236653583103</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06923947943249251</v>
+        <v>0.06933018802809016</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>618</v>
@@ -3705,19 +3705,19 @@
         <v>381879</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>348811</v>
+        <v>351523</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>413074</v>
+        <v>413921</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1022973834238717</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.09343902925177418</v>
+        <v>0.09416551089309272</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1106538191373908</v>
+        <v>0.1108806260792953</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>852</v>
@@ -3726,19 +3726,19 @@
         <v>595947</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>556599</v>
+        <v>555752</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>643829</v>
+        <v>638804</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.0820330962716474</v>
+        <v>0.08203309627164738</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.07661683652636855</v>
+        <v>0.07650017413800349</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.08862415950915215</v>
+        <v>0.0879325229708852</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>690730</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>641631</v>
+        <v>642736</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>737297</v>
+        <v>739588</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1955812375790776</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.181678796740108</v>
+        <v>0.1819914932050476</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2087667818162007</v>
+        <v>0.2094153471110277</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1459</v>
@@ -3776,19 +3776,19 @@
         <v>894439</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>849000</v>
+        <v>852482</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>935852</v>
+        <v>941280</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2396012532073174</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2274292461803543</v>
+        <v>0.2283619451321049</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2506949632769467</v>
+        <v>0.2521490281308564</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2217</v>
@@ -3797,19 +3797,19 @@
         <v>1585169</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1515184</v>
+        <v>1522296</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1649437</v>
+        <v>1653847</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2182012771593163</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2085677130105648</v>
+        <v>0.2095467200436471</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2270478325446646</v>
+        <v>0.2276549228742693</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>2391603</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2332784</v>
+        <v>2336232</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2449256</v>
+        <v>2452241</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.6771855118488123</v>
+        <v>0.6771855118488121</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.6605309462714204</v>
+        <v>0.661507386994751</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6935102402722757</v>
+        <v>0.6943552974259629</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2661</v>
@@ -3847,19 +3847,19 @@
         <v>2044599</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1990281</v>
+        <v>1988968</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2099101</v>
+        <v>2101330</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.5477048481993226</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5331543995559537</v>
+        <v>0.5328025702109188</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5623049352658647</v>
+        <v>0.5629018616536896</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4780</v>
@@ -3868,19 +3868,19 @@
         <v>4436201</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4353397</v>
+        <v>4357533</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4513043</v>
+        <v>4518430</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.6106508299586018</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.599252630077587</v>
+        <v>0.5998220396572841</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6212282167596928</v>
+        <v>0.6219697978146068</v>
       </c>
     </row>
     <row r="48">
